--- a/PEMBAGIAN_JAM_CP.xlsx
+++ b/PEMBAGIAN_JAM_CP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KURIKULUM MERDEKA BELAJAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KURIKULUM MERDEKA BELAJAR\PERANGKAT TJKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,37 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">1.     Proses bisnis secara menyeluruh bidang teknik jaringan komputer dan telekomunikasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.     Perkembangan teknologi di bidang teknik jaringan komputer dan telekomunikasi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.     Profesi dan kewirausahaan (job profile dan technopreneur di bidang teknik jaringan komputer dan telekomunikasi </t>
-  </si>
-  <si>
-    <t>4.     Keselamatan dan Kesehatan Kerja serta Lingkungan Hidup (K3LH) dan budaya kerja industry</t>
-  </si>
-  <si>
-    <t>5.     Dasar-dasar teknik jaringan komputer dan telekomunikasi</t>
-  </si>
-  <si>
-    <t>6.     Media dan jaringan telekomunikasi</t>
-  </si>
-  <si>
-    <t>7.     Penggunaan alat ukur jaringan</t>
-  </si>
-  <si>
-    <t>KD1</t>
-  </si>
-  <si>
-    <t>KD2</t>
-  </si>
-  <si>
-    <t>KD3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>JAM</t>
   </si>
@@ -71,9 +41,6 @@
     <t>KD : KOMPETENSI DASAR</t>
   </si>
   <si>
-    <t>KOMPETENSI DASAR</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -90,13 +57,52 @@
   </si>
   <si>
     <t>DASAR PROGRAM KEAHLIAN</t>
+  </si>
+  <si>
+    <t>SEMESTER</t>
+  </si>
+  <si>
+    <t>GASAL</t>
+  </si>
+  <si>
+    <t>GENAP</t>
+  </si>
+  <si>
+    <t>Ahmad Rizqi Fadloli,S.Pd</t>
+  </si>
+  <si>
+    <t>Rani Dodik Kurniawan, S.Pd</t>
+  </si>
+  <si>
+    <t>Aisyah Agistina, S. Pd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proses bisnis secara menyeluruh bidang teknik jaringan komputer dan telekomunikasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profesi dan kewirausahaan (job profile dan technopreneur di bidang teknik jaringan komputer dan telekomunikasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkembangan teknologi di bidang teknik jaringan komputer dan telekomunikasi </t>
+  </si>
+  <si>
+    <t>Keselamatan dan Kesehatan Kerja serta Lingkungan Hidup (K3LH) dan budaya kerja industry</t>
+  </si>
+  <si>
+    <t>Dasar-dasar teknik jaringan komputer dan telekomunikasi</t>
+  </si>
+  <si>
+    <t>Media dan jaringan telekomunikasi</t>
+  </si>
+  <si>
+    <t>Penggunaan alat ukur jaringan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,7 +112,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -212,44 +225,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,194 +568,200 @@
   <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="100.21875" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="116.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="D8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="17">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
+    </row>
+    <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="F4" s="15">
-        <v>3</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="15">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="15">
-        <v>6</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <f>SUM(D4:D10)</f>
+      <c r="C10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21">
+        <f>SUM(E4:E10)</f>
         <v>12</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="F11" s="21">
         <f>SUM(F4:F10)</f>
         <v>12</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
@@ -732,16 +772,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G10"/>
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F10"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PEMBAGIAN_JAM_CP.xlsx
+++ b/PEMBAGIAN_JAM_CP.xlsx
@@ -240,50 +240,50 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,10 +565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,18 +579,18 @@
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="116.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -619,13 +622,13 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="16">
         <v>3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="15">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -639,27 +642,27 @@
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="18">
         <v>3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="15">
         <v>3</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -667,33 +670,33 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="20">
         <v>6</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="15">
         <v>6</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -701,43 +704,43 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
         <f>SUM(E4:E10)</f>
         <v>12</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="10">
         <f>SUM(F4:F10)</f>
         <v>12</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
@@ -784,6 +787,6 @@
     <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>